--- a/locationInformation.xlsx
+++ b/locationInformation.xlsx
@@ -442,82 +442,82 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>34.71340885106699</v>
+        <v>74.42762314917488</v>
       </c>
       <c r="B3" t="n">
-        <v>32.44725694332556</v>
+        <v>34.3176517674314</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>95.37635179315393</v>
+        <v>40.45637850328286</v>
       </c>
       <c r="B4" t="n">
-        <v>82.87814478752838</v>
+        <v>92.73122248940075</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>70.41450120981993</v>
+        <v>21.88647418312981</v>
       </c>
       <c r="B5" t="n">
-        <v>18.15183146846434</v>
+        <v>78.55792825368184</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>23.89518775253894</v>
+        <v>42.79100447507547</v>
       </c>
       <c r="B6" t="n">
-        <v>54.70311091287263</v>
+        <v>97.47655453062241</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>7.552667165202176</v>
+        <v>20.63938196020441</v>
       </c>
       <c r="B7" t="n">
-        <v>59.76875919407626</v>
+        <v>6.264045956120256</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>72.23525217757928</v>
+        <v>5.425667601009487</v>
       </c>
       <c r="B8" t="n">
-        <v>48.79946030135984</v>
+        <v>54.77465054672726</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>22.19211100904808</v>
+        <v>14.59528984569164</v>
       </c>
       <c r="B9" t="n">
-        <v>47.68449304113829</v>
+        <v>39.11601370282924</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>67.14783687308578</v>
+        <v>15.48743939841869</v>
       </c>
       <c r="B10" t="n">
-        <v>51.81319198815322</v>
+        <v>66.54949985116167</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>83.6341374613087</v>
+        <v>31.64153237713554</v>
       </c>
       <c r="B11" t="n">
-        <v>7.009476606441057</v>
+        <v>42.56386464843601</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>29.78381497139111</v>
+        <v>33.52959733088412</v>
       </c>
       <c r="B12" t="n">
-        <v>76.80953350790827</v>
+        <v>42.90874476287795</v>
       </c>
     </row>
   </sheetData>

--- a/locationInformation.xlsx
+++ b/locationInformation.xlsx
@@ -442,82 +442,82 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>74.42762314917488</v>
+        <v>57.41373610426951</v>
       </c>
       <c r="B3" t="n">
-        <v>34.3176517674314</v>
+        <v>8.935741622304082</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>40.45637850328286</v>
+        <v>89.71526976439988</v>
       </c>
       <c r="B4" t="n">
-        <v>92.73122248940075</v>
+        <v>30.67802042938224</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>21.88647418312981</v>
+        <v>97.41679004542982</v>
       </c>
       <c r="B5" t="n">
-        <v>78.55792825368184</v>
+        <v>84.73567178883592</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>42.79100447507547</v>
+        <v>16.3211806722936</v>
       </c>
       <c r="B6" t="n">
-        <v>97.47655453062241</v>
+        <v>6.485619594458525</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>20.63938196020441</v>
+        <v>10.21543079202826</v>
       </c>
       <c r="B7" t="n">
-        <v>6.264045956120256</v>
+        <v>10.8882930861275</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>5.425667601009487</v>
+        <v>79.14978540030624</v>
       </c>
       <c r="B8" t="n">
-        <v>54.77465054672726</v>
+        <v>11.24683193950792</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>14.59528984569164</v>
+        <v>90.80292771628528</v>
       </c>
       <c r="B9" t="n">
-        <v>39.11601370282924</v>
+        <v>18.93035147966117</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>15.48743939841869</v>
+        <v>80.42226445219093</v>
       </c>
       <c r="B10" t="n">
-        <v>66.54949985116167</v>
+        <v>73.52303697041475</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>31.64153237713554</v>
+        <v>11.6670177641728</v>
       </c>
       <c r="B11" t="n">
-        <v>42.56386464843601</v>
+        <v>10.27339196342455</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>33.52959733088412</v>
+        <v>38.62107459403895</v>
       </c>
       <c r="B12" t="n">
-        <v>42.90874476287795</v>
+        <v>82.20639632373262</v>
       </c>
     </row>
   </sheetData>

--- a/locationInformation.xlsx
+++ b/locationInformation.xlsx
@@ -442,82 +442,82 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>57.41373610426951</v>
+        <v>79.53536891886992</v>
       </c>
       <c r="B3" t="n">
-        <v>8.935741622304082</v>
+        <v>23.70269931245101</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>89.71526976439988</v>
+        <v>90.09825276600961</v>
       </c>
       <c r="B4" t="n">
-        <v>30.67802042938224</v>
+        <v>95.08105263753922</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>97.41679004542982</v>
+        <v>20.46608356000409</v>
       </c>
       <c r="B5" t="n">
-        <v>84.73567178883592</v>
+        <v>91.58596138331298</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>16.3211806722936</v>
+        <v>49.2017097531991</v>
       </c>
       <c r="B6" t="n">
-        <v>6.485619594458525</v>
+        <v>32.58831020781147</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>10.21543079202826</v>
+        <v>8.005084234359494</v>
       </c>
       <c r="B7" t="n">
-        <v>10.8882930861275</v>
+        <v>19.79758087052412</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>79.14978540030624</v>
+        <v>44.84802686741973</v>
       </c>
       <c r="B8" t="n">
-        <v>11.24683193950792</v>
+        <v>95.40859031254998</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>90.80292771628528</v>
+        <v>27.58662761881958</v>
       </c>
       <c r="B9" t="n">
-        <v>18.93035147966117</v>
+        <v>98.35417812855319</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>80.42226445219093</v>
+        <v>66.60292589009414</v>
       </c>
       <c r="B10" t="n">
-        <v>73.52303697041475</v>
+        <v>65.82823913228314</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>11.6670177641728</v>
+        <v>51.68258333365756</v>
       </c>
       <c r="B11" t="n">
-        <v>10.27339196342455</v>
+        <v>84.63625622203534</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>38.62107459403895</v>
+        <v>0.9289491099016778</v>
       </c>
       <c r="B12" t="n">
-        <v>82.20639632373262</v>
+        <v>10.59467601069104</v>
       </c>
     </row>
   </sheetData>

--- a/locationInformation.xlsx
+++ b/locationInformation.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,85 +439,88 @@
           <t>GU y-loc</t>
         </is>
       </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>79.53536891886992</v>
+        <v>13.22974173097218</v>
       </c>
       <c r="B3" t="n">
-        <v>23.70269931245101</v>
+        <v>2.132022286267576</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>90.09825276600961</v>
+        <v>34.64977417950777</v>
       </c>
       <c r="B4" t="n">
-        <v>95.08105263753922</v>
+        <v>69.18286952459854</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>20.46608356000409</v>
+        <v>95.53512069217356</v>
       </c>
       <c r="B5" t="n">
-        <v>91.58596138331298</v>
+        <v>45.79800759219022</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>49.2017097531991</v>
+        <v>29.78893318535132</v>
       </c>
       <c r="B6" t="n">
-        <v>32.58831020781147</v>
+        <v>92.41318878516938</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>8.005084234359494</v>
+        <v>76.15446332648358</v>
       </c>
       <c r="B7" t="n">
-        <v>19.79758087052412</v>
+        <v>14.14613072365585</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>44.84802686741973</v>
+        <v>18.0324100300262</v>
       </c>
       <c r="B8" t="n">
-        <v>95.40859031254998</v>
+        <v>96.85221435341256</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>27.58662761881958</v>
+        <v>28.74530847559458</v>
       </c>
       <c r="B9" t="n">
-        <v>98.35417812855319</v>
+        <v>53.89413602223083</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>66.60292589009414</v>
+        <v>32.02996016716197</v>
       </c>
       <c r="B10" t="n">
-        <v>65.82823913228314</v>
+        <v>22.00595036750943</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>51.68258333365756</v>
+        <v>39.87998345190111</v>
       </c>
       <c r="B11" t="n">
-        <v>84.63625622203534</v>
+        <v>21.77904023215894</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.9289491099016778</v>
+        <v>88.67718158179268</v>
       </c>
       <c r="B12" t="n">
-        <v>10.59467601069104</v>
+        <v>90.3726432034359</v>
       </c>
     </row>
   </sheetData>

--- a/locationInformation.xlsx
+++ b/locationInformation.xlsx
@@ -440,87 +440,87 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>13.22974173097218</v>
+        <v>4.245470672676466</v>
       </c>
       <c r="B3" t="n">
-        <v>2.132022286267576</v>
+        <v>91.82809191484665</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>34.64977417950777</v>
+        <v>4.088570038795758</v>
       </c>
       <c r="B4" t="n">
-        <v>69.18286952459854</v>
+        <v>29.1042295643599</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>95.53512069217356</v>
+        <v>24.17510979685131</v>
       </c>
       <c r="B5" t="n">
-        <v>45.79800759219022</v>
+        <v>56.04669775676061</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>29.78893318535132</v>
+        <v>26.6637156208492</v>
       </c>
       <c r="B6" t="n">
-        <v>92.41318878516938</v>
+        <v>56.62023467987844</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>76.15446332648358</v>
+        <v>81.06639708273153</v>
       </c>
       <c r="B7" t="n">
-        <v>14.14613072365585</v>
+        <v>30.71213430961654</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>18.0324100300262</v>
+        <v>48.29271857091864</v>
       </c>
       <c r="B8" t="n">
-        <v>96.85221435341256</v>
+        <v>26.13748785104874</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>28.74530847559458</v>
+        <v>67.02252928682132</v>
       </c>
       <c r="B9" t="n">
-        <v>53.89413602223083</v>
+        <v>22.9267076694891</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>32.02996016716197</v>
+        <v>40.94932524829853</v>
       </c>
       <c r="B10" t="n">
-        <v>22.00595036750943</v>
+        <v>84.2290927689655</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>39.87998345190111</v>
+        <v>28.41859248739227</v>
       </c>
       <c r="B11" t="n">
-        <v>21.77904023215894</v>
+        <v>12.5895514291717</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>88.67718158179268</v>
+        <v>6.417880303535417</v>
       </c>
       <c r="B12" t="n">
-        <v>90.3726432034359</v>
+        <v>53.65930185000008</v>
       </c>
     </row>
   </sheetData>

--- a/locationInformation.xlsx
+++ b/locationInformation.xlsx
@@ -445,82 +445,82 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4.245470672676466</v>
+        <v>32.71966056279408</v>
       </c>
       <c r="B3" t="n">
-        <v>91.82809191484665</v>
+        <v>43.01331663344358</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4.088570038795758</v>
+        <v>48.09406819538096</v>
       </c>
       <c r="B4" t="n">
-        <v>29.1042295643599</v>
+        <v>33.93739223144012</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>24.17510979685131</v>
+        <v>52.23782900250901</v>
       </c>
       <c r="B5" t="n">
-        <v>56.04669775676061</v>
+        <v>81.04062086136436</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>26.6637156208492</v>
+        <v>56.95111476787634</v>
       </c>
       <c r="B6" t="n">
-        <v>56.62023467987844</v>
+        <v>32.74606960590344</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>81.06639708273153</v>
+        <v>82.10116801820824</v>
       </c>
       <c r="B7" t="n">
-        <v>30.71213430961654</v>
+        <v>6.858695063036146</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>48.29271857091864</v>
+        <v>35.7307703832314</v>
       </c>
       <c r="B8" t="n">
-        <v>26.13748785104874</v>
+        <v>19.47957135807723</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>67.02252928682132</v>
+        <v>14.7272413952118</v>
       </c>
       <c r="B9" t="n">
-        <v>22.9267076694891</v>
+        <v>46.10307682174389</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>40.94932524829853</v>
+        <v>53.46478515854999</v>
       </c>
       <c r="B10" t="n">
-        <v>84.2290927689655</v>
+        <v>11.00988530889447</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>28.41859248739227</v>
+        <v>80.48356750985175</v>
       </c>
       <c r="B11" t="n">
-        <v>12.5895514291717</v>
+        <v>43.23773846984002</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>6.417880303535417</v>
+        <v>21.21951365648563</v>
       </c>
       <c r="B12" t="n">
-        <v>53.65930185000008</v>
+        <v>45.59644849462379</v>
       </c>
     </row>
   </sheetData>

--- a/locationInformation.xlsx
+++ b/locationInformation.xlsx
@@ -440,87 +440,87 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>32.71966056279408</v>
+        <v>36.92302465258933</v>
       </c>
       <c r="B3" t="n">
-        <v>43.01331663344358</v>
+        <v>73.10519260735423</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>48.09406819538096</v>
+        <v>76.76575221763427</v>
       </c>
       <c r="B4" t="n">
-        <v>33.93739223144012</v>
+        <v>30.20118089952725</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>52.23782900250901</v>
+        <v>49.53189504599449</v>
       </c>
       <c r="B5" t="n">
-        <v>81.04062086136436</v>
+        <v>49.0002892429563</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>56.95111476787634</v>
+        <v>40.95219093690077</v>
       </c>
       <c r="B6" t="n">
-        <v>32.74606960590344</v>
+        <v>57.44310702965544</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>82.10116801820824</v>
+        <v>31.63979426162373</v>
       </c>
       <c r="B7" t="n">
-        <v>6.858695063036146</v>
+        <v>81.80145689682745</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>35.7307703832314</v>
+        <v>63.05214073746789</v>
       </c>
       <c r="B8" t="n">
-        <v>19.47957135807723</v>
+        <v>11.37567813930234</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>14.7272413952118</v>
+        <v>35.03470365593206</v>
       </c>
       <c r="B9" t="n">
-        <v>46.10307682174389</v>
+        <v>5.11047865770492</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>53.46478515854999</v>
+        <v>85.81118281419839</v>
       </c>
       <c r="B10" t="n">
-        <v>11.00988530889447</v>
+        <v>62.86564587562903</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>80.48356750985175</v>
+        <v>54.95930882584423</v>
       </c>
       <c r="B11" t="n">
-        <v>43.23773846984002</v>
+        <v>98.96012659480485</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>21.21951365648563</v>
+        <v>75.59822734668583</v>
       </c>
       <c r="B12" t="n">
-        <v>45.59644849462379</v>
+        <v>35.17420390084419</v>
       </c>
     </row>
   </sheetData>

--- a/locationInformation.xlsx
+++ b/locationInformation.xlsx
@@ -440,87 +440,87 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>36.92302465258933</v>
+        <v>77.15962396864407</v>
       </c>
       <c r="B3" t="n">
-        <v>73.10519260735423</v>
+        <v>77.11420391272982</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>76.76575221763427</v>
+        <v>17.06502100634582</v>
       </c>
       <c r="B4" t="n">
-        <v>30.20118089952725</v>
+        <v>43.32528646990927</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>49.53189504599449</v>
+        <v>79.77244289184809</v>
       </c>
       <c r="B5" t="n">
-        <v>49.0002892429563</v>
+        <v>28.69696202905662</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>40.95219093690077</v>
+        <v>9.361029719743041</v>
       </c>
       <c r="B6" t="n">
-        <v>57.44310702965544</v>
+        <v>6.388623260203252</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>31.63979426162373</v>
+        <v>62.20248048210066</v>
       </c>
       <c r="B7" t="n">
-        <v>81.80145689682745</v>
+        <v>83.79957227586071</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>63.05214073746789</v>
+        <v>78.80775595956317</v>
       </c>
       <c r="B8" t="n">
-        <v>11.37567813930234</v>
+        <v>43.16215432749473</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>35.03470365593206</v>
+        <v>86.10951428351129</v>
       </c>
       <c r="B9" t="n">
-        <v>5.11047865770492</v>
+        <v>63.53302883865107</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>85.81118281419839</v>
+        <v>42.29908204073626</v>
       </c>
       <c r="B10" t="n">
-        <v>62.86564587562903</v>
+        <v>62.88083945706551</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>54.95930882584423</v>
+        <v>71.5448293858242</v>
       </c>
       <c r="B11" t="n">
-        <v>98.96012659480485</v>
+        <v>88.90912952568036</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>75.59822734668583</v>
+        <v>67.59994002228677</v>
       </c>
       <c r="B12" t="n">
-        <v>35.17420390084419</v>
+        <v>75.80136897434147</v>
       </c>
     </row>
   </sheetData>

--- a/locationInformation.xlsx
+++ b/locationInformation.xlsx
@@ -440,87 +440,87 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>77.15962396864407</v>
+        <v>29.56524612042536</v>
       </c>
       <c r="B3" t="n">
-        <v>77.11420391272982</v>
+        <v>95.76958326208991</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>17.06502100634582</v>
+        <v>69.78659249655198</v>
       </c>
       <c r="B4" t="n">
-        <v>43.32528646990927</v>
+        <v>11.92826765573382</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>79.77244289184809</v>
+        <v>16.58626901503388</v>
       </c>
       <c r="B5" t="n">
-        <v>28.69696202905662</v>
+        <v>23.67071203593438</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>9.361029719743041</v>
+        <v>38.36956038909508</v>
       </c>
       <c r="B6" t="n">
-        <v>6.388623260203252</v>
+        <v>7.133039119256123</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>62.20248048210066</v>
+        <v>22.02819801420443</v>
       </c>
       <c r="B7" t="n">
-        <v>83.79957227586071</v>
+        <v>77.98396211664804</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>78.80775595956317</v>
+        <v>1.789323625380312</v>
       </c>
       <c r="B8" t="n">
-        <v>43.16215432749473</v>
+        <v>87.96927749277803</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>86.10951428351129</v>
+        <v>29.2928190504982</v>
       </c>
       <c r="B9" t="n">
-        <v>63.53302883865107</v>
+        <v>25.61593146378982</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>42.29908204073626</v>
+        <v>13.07769353357928</v>
       </c>
       <c r="B10" t="n">
-        <v>62.88083945706551</v>
+        <v>17.52709635221962</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>71.5448293858242</v>
+        <v>26.23423637846244</v>
       </c>
       <c r="B11" t="n">
-        <v>88.90912952568036</v>
+        <v>73.0341378458396</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>67.59994002228677</v>
+        <v>81.22562608946082</v>
       </c>
       <c r="B12" t="n">
-        <v>75.80136897434147</v>
+        <v>49.42890411673155</v>
       </c>
     </row>
   </sheetData>

--- a/locationInformation.xlsx
+++ b/locationInformation.xlsx
@@ -440,87 +440,87 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>29.56524612042536</v>
+        <v>87.45821816681004</v>
       </c>
       <c r="B3" t="n">
-        <v>95.76958326208991</v>
+        <v>17.81409706399156</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>69.78659249655198</v>
+        <v>26.29731418747149</v>
       </c>
       <c r="B4" t="n">
-        <v>11.92826765573382</v>
+        <v>8.773450948315409</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>16.58626901503388</v>
+        <v>75.18874681332647</v>
       </c>
       <c r="B5" t="n">
-        <v>23.67071203593438</v>
+        <v>55.15055548678205</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>38.36956038909508</v>
+        <v>68.95917874611716</v>
       </c>
       <c r="B6" t="n">
-        <v>7.133039119256123</v>
+        <v>19.24949799448661</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>22.02819801420443</v>
+        <v>73.18215173486026</v>
       </c>
       <c r="B7" t="n">
-        <v>77.98396211664804</v>
+        <v>19.1989711992746</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1.789323625380312</v>
+        <v>74.26689784351991</v>
       </c>
       <c r="B8" t="n">
-        <v>87.96927749277803</v>
+        <v>77.72770642148744</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>29.2928190504982</v>
+        <v>93.23272129059804</v>
       </c>
       <c r="B9" t="n">
-        <v>25.61593146378982</v>
+        <v>78.93569226337834</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>13.07769353357928</v>
+        <v>44.36571808708515</v>
       </c>
       <c r="B10" t="n">
-        <v>17.52709635221962</v>
+        <v>10.76782671602972</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>26.23423637846244</v>
+        <v>75.21471898901436</v>
       </c>
       <c r="B11" t="n">
-        <v>73.0341378458396</v>
+        <v>81.03776127250838</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>81.22562608946082</v>
+        <v>28.2663393807111</v>
       </c>
       <c r="B12" t="n">
-        <v>49.42890411673155</v>
+        <v>65.27834696001426</v>
       </c>
     </row>
   </sheetData>

--- a/locationInformation.xlsx
+++ b/locationInformation.xlsx
@@ -440,87 +440,87 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>29.56524612042536</v>
+        <v>96.56521846507052</v>
       </c>
       <c r="B3" t="n">
-        <v>95.76958326208991</v>
+        <v>86.89578210828647</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>69.78659249655198</v>
+        <v>65.80710753985534</v>
       </c>
       <c r="B4" t="n">
-        <v>11.92826765573382</v>
+        <v>17.57149157029367</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>16.58626901503388</v>
+        <v>91.86152813560284</v>
       </c>
       <c r="B5" t="n">
-        <v>23.67071203593438</v>
+        <v>11.39524768341641</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>38.36956038909508</v>
+        <v>9.529679874546403</v>
       </c>
       <c r="B6" t="n">
-        <v>7.133039119256123</v>
+        <v>23.46916353117374</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>22.02819801420443</v>
+        <v>27.40863308502137</v>
       </c>
       <c r="B7" t="n">
-        <v>77.98396211664804</v>
+        <v>43.0514964677438</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1.789323625380312</v>
+        <v>59.41904379066708</v>
       </c>
       <c r="B8" t="n">
-        <v>87.96927749277803</v>
+        <v>76.06392539620803</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>29.2928190504982</v>
+        <v>66.08657811848919</v>
       </c>
       <c r="B9" t="n">
-        <v>25.61593146378982</v>
+        <v>6.627187233045362</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>13.07769353357928</v>
+        <v>48.78140764780962</v>
       </c>
       <c r="B10" t="n">
-        <v>17.52709635221962</v>
+        <v>93.81972434175412</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>26.23423637846244</v>
+        <v>63.01474457766866</v>
       </c>
       <c r="B11" t="n">
-        <v>73.0341378458396</v>
+        <v>22.89279855201061</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>81.22562608946082</v>
+        <v>4.18051467312357</v>
       </c>
       <c r="B12" t="n">
-        <v>49.42890411673155</v>
+        <v>3.099619534073905</v>
       </c>
     </row>
   </sheetData>

--- a/locationInformation.xlsx
+++ b/locationInformation.xlsx
@@ -440,87 +440,87 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>87.45821816681004</v>
+        <v>41.30997562224412</v>
       </c>
       <c r="B3" t="n">
-        <v>17.81409706399156</v>
+        <v>62.53504315961324</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>26.29731418747149</v>
+        <v>82.50079218563667</v>
       </c>
       <c r="B4" t="n">
-        <v>8.773450948315409</v>
+        <v>31.52646607421336</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>75.18874681332647</v>
+        <v>78.85433157563705</v>
       </c>
       <c r="B5" t="n">
-        <v>55.15055548678205</v>
+        <v>49.47654605379014</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>68.95917874611716</v>
+        <v>34.94308145949472</v>
       </c>
       <c r="B6" t="n">
-        <v>19.24949799448661</v>
+        <v>96.59229326266679</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>73.18215173486026</v>
+        <v>43.68319257789677</v>
       </c>
       <c r="B7" t="n">
-        <v>19.1989711992746</v>
+        <v>0.7314899697165145</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>74.26689784351991</v>
+        <v>77.02504625743363</v>
       </c>
       <c r="B8" t="n">
-        <v>77.72770642148744</v>
+        <v>98.91224588200217</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>93.23272129059804</v>
+        <v>99.32279082335582</v>
       </c>
       <c r="B9" t="n">
-        <v>78.93569226337834</v>
+        <v>39.74135920908438</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>44.36571808708515</v>
+        <v>69.558264679263</v>
       </c>
       <c r="B10" t="n">
-        <v>10.76782671602972</v>
+        <v>82.60305733196559</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>75.21471898901436</v>
+        <v>93.62681577762231</v>
       </c>
       <c r="B11" t="n">
-        <v>81.03776127250838</v>
+        <v>97.1301704130606</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>28.2663393807111</v>
+        <v>85.3305870818825</v>
       </c>
       <c r="B12" t="n">
-        <v>65.27834696001426</v>
+        <v>11.84412292217771</v>
       </c>
     </row>
   </sheetData>

--- a/locationInformation.xlsx
+++ b/locationInformation.xlsx
@@ -440,87 +440,87 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>21.44771942361964</v>
+        <v>50.40467942878328</v>
       </c>
       <c r="B3" t="n">
-        <v>46.94713939984106</v>
+        <v>13.14360013642029</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>59.68887461483933</v>
+        <v>93.82097424204015</v>
       </c>
       <c r="B4" t="n">
-        <v>11.25296321870263</v>
+        <v>18.12945806365819</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>61.69997361762849</v>
+        <v>94.13141409236381</v>
       </c>
       <c r="B5" t="n">
-        <v>41.5750164373606</v>
+        <v>45.53745558602167</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>40.78540339557983</v>
+        <v>49.65649633429467</v>
       </c>
       <c r="B6" t="n">
-        <v>76.14287603190179</v>
+        <v>86.51310097832352</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>45.20004673547118</v>
+        <v>17.49274755647373</v>
       </c>
       <c r="B7" t="n">
-        <v>72.30932462828217</v>
+        <v>79.8807279670259</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>77.65289530861244</v>
+        <v>20.74492446879748</v>
       </c>
       <c r="B8" t="n">
-        <v>14.52177452060034</v>
+        <v>29.71317475906156</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>13.41253375810397</v>
+        <v>63.64989035097183</v>
       </c>
       <c r="B9" t="n">
-        <v>66.59935205353351</v>
+        <v>75.30017519308365</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>64.3788251319027</v>
+        <v>49.26517313827269</v>
       </c>
       <c r="B10" t="n">
-        <v>45.25869244019984</v>
+        <v>26.99710753297961</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>46.62929597801615</v>
+        <v>21.53854986793434</v>
       </c>
       <c r="B11" t="n">
-        <v>99.72484196525936</v>
+        <v>96.07765685523543</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>11.55914650488649</v>
+        <v>85.02021725719329</v>
       </c>
       <c r="B12" t="n">
-        <v>58.60334419977205</v>
+        <v>19.59744190111259</v>
       </c>
     </row>
   </sheetData>

--- a/locationInformation.xlsx
+++ b/locationInformation.xlsx
@@ -440,87 +440,87 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>50.40467942878328</v>
+        <v>46.53961179296537</v>
       </c>
       <c r="B3" t="n">
-        <v>13.14360013642029</v>
+        <v>73.28511523281539</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>93.82097424204015</v>
+        <v>55.48857791187818</v>
       </c>
       <c r="B4" t="n">
-        <v>18.12945806365819</v>
+        <v>84.5803964464435</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>94.13141409236381</v>
+        <v>53.40736637522737</v>
       </c>
       <c r="B5" t="n">
-        <v>45.53745558602167</v>
+        <v>86.62151091768754</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>49.65649633429467</v>
+        <v>11.56518954565834</v>
       </c>
       <c r="B6" t="n">
-        <v>86.51310097832352</v>
+        <v>56.74868355996794</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>17.49274755647373</v>
+        <v>3.947720901143759</v>
       </c>
       <c r="B7" t="n">
-        <v>79.8807279670259</v>
+        <v>50.98083419853126</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>20.74492446879748</v>
+        <v>16.63924512215296</v>
       </c>
       <c r="B8" t="n">
-        <v>29.71317475906156</v>
+        <v>55.12816622572738</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>63.64989035097183</v>
+        <v>68.95657569648125</v>
       </c>
       <c r="B9" t="n">
-        <v>75.30017519308365</v>
+        <v>60.14845915286951</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>49.26517313827269</v>
+        <v>26.61731747331199</v>
       </c>
       <c r="B10" t="n">
-        <v>26.99710753297961</v>
+        <v>7.584727966090322</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>21.53854986793434</v>
+        <v>57.3610173681982</v>
       </c>
       <c r="B11" t="n">
-        <v>96.07765685523543</v>
+        <v>63.58411944922894</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>85.02021725719329</v>
+        <v>69.23569088281548</v>
       </c>
       <c r="B12" t="n">
-        <v>19.59744190111259</v>
+        <v>93.07366140427791</v>
       </c>
     </row>
   </sheetData>

--- a/locationInformation.xlsx
+++ b/locationInformation.xlsx
@@ -440,87 +440,87 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>46.53961179296537</v>
+        <v>52.9087380719689</v>
       </c>
       <c r="B3" t="n">
-        <v>73.28511523281539</v>
+        <v>56.4351183023249</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>55.48857791187818</v>
+        <v>62.97140005803571</v>
       </c>
       <c r="B4" t="n">
-        <v>84.5803964464435</v>
+        <v>17.20237709564901</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>53.40736637522737</v>
+        <v>14.71261868692141</v>
       </c>
       <c r="B5" t="n">
-        <v>86.62151091768754</v>
+        <v>30.45681025143712</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>11.56518954565834</v>
+        <v>24.1418054617382</v>
       </c>
       <c r="B6" t="n">
-        <v>56.74868355996794</v>
+        <v>7.859849441001787</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3.947720901143759</v>
+        <v>29.34466860965464</v>
       </c>
       <c r="B7" t="n">
-        <v>50.98083419853126</v>
+        <v>86.7944614052865</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>16.63924512215296</v>
+        <v>64.84668771468223</v>
       </c>
       <c r="B8" t="n">
-        <v>55.12816622572738</v>
+        <v>72.70989817063514</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>68.95657569648125</v>
+        <v>87.21010782314444</v>
       </c>
       <c r="B9" t="n">
-        <v>60.14845915286951</v>
+        <v>23.95300532681227</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>26.61731747331199</v>
+        <v>4.95179606768601</v>
       </c>
       <c r="B10" t="n">
-        <v>7.584727966090322</v>
+        <v>41.2978198059575</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>57.3610173681982</v>
+        <v>66.35517359352863</v>
       </c>
       <c r="B11" t="n">
-        <v>63.58411944922894</v>
+        <v>47.96147376937456</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>69.23569088281548</v>
+        <v>91.58280381341601</v>
       </c>
       <c r="B12" t="n">
-        <v>93.07366140427791</v>
+        <v>69.16935367901397</v>
       </c>
     </row>
   </sheetData>

--- a/locationInformation.xlsx
+++ b/locationInformation.xlsx
@@ -440,87 +440,87 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>52.9087380719689</v>
+        <v>28.60000501859509</v>
       </c>
       <c r="B3" t="n">
-        <v>56.4351183023249</v>
+        <v>62.42353235730748</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>62.97140005803571</v>
+        <v>31.38417913703053</v>
       </c>
       <c r="B4" t="n">
-        <v>17.20237709564901</v>
+        <v>7.925324809081557</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>14.71261868692141</v>
+        <v>15.21039108305142</v>
       </c>
       <c r="B5" t="n">
-        <v>30.45681025143712</v>
+        <v>62.03751142383626</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>24.1418054617382</v>
+        <v>21.67523069794835</v>
       </c>
       <c r="B6" t="n">
-        <v>7.859849441001787</v>
+        <v>44.92163498384407</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>29.34466860965464</v>
+        <v>69.78113907520618</v>
       </c>
       <c r="B7" t="n">
-        <v>86.7944614052865</v>
+        <v>25.9482730679905</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>64.84668771468223</v>
+        <v>8.650661194626386</v>
       </c>
       <c r="B8" t="n">
-        <v>72.70989817063514</v>
+        <v>81.65148203753706</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>87.21010782314444</v>
+        <v>98.71403278604058</v>
       </c>
       <c r="B9" t="n">
-        <v>23.95300532681227</v>
+        <v>10.69455817776817</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4.95179606768601</v>
+        <v>98.18677150241227</v>
       </c>
       <c r="B10" t="n">
-        <v>41.2978198059575</v>
+        <v>42.66885912130722</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>66.35517359352863</v>
+        <v>78.48418969501093</v>
       </c>
       <c r="B11" t="n">
-        <v>47.96147376937456</v>
+        <v>74.62159936182387</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>91.58280381341601</v>
+        <v>91.80517476315224</v>
       </c>
       <c r="B12" t="n">
-        <v>69.16935367901397</v>
+        <v>84.0715222248398</v>
       </c>
     </row>
   </sheetData>

--- a/locationInformation.xlsx
+++ b/locationInformation.xlsx
@@ -445,82 +445,82 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>28.60000501859509</v>
+        <v>97.59060580744973</v>
       </c>
       <c r="B3" t="n">
-        <v>62.42353235730748</v>
+        <v>15.71216806205307</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>31.38417913703053</v>
+        <v>12.63951656676334</v>
       </c>
       <c r="B4" t="n">
-        <v>7.925324809081557</v>
+        <v>49.07627489395733</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>15.21039108305142</v>
+        <v>22.12052835868113</v>
       </c>
       <c r="B5" t="n">
-        <v>62.03751142383626</v>
+        <v>86.67203836433957</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>21.67523069794835</v>
+        <v>4.617586739061153</v>
       </c>
       <c r="B6" t="n">
-        <v>44.92163498384407</v>
+        <v>18.57340905398419</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>69.78113907520618</v>
+        <v>16.85258296598267</v>
       </c>
       <c r="B7" t="n">
-        <v>25.9482730679905</v>
+        <v>69.75639128612507</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>8.650661194626386</v>
+        <v>31.77035899188406</v>
       </c>
       <c r="B8" t="n">
-        <v>81.65148203753706</v>
+        <v>28.76347273638721</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>98.71403278604058</v>
+        <v>85.30436582307223</v>
       </c>
       <c r="B9" t="n">
-        <v>10.69455817776817</v>
+        <v>32.16942445557427</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>98.18677150241227</v>
+        <v>98.02999969983162</v>
       </c>
       <c r="B10" t="n">
-        <v>42.66885912130722</v>
+        <v>8.196248726929568</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>78.48418969501093</v>
+        <v>58.19122925570879</v>
       </c>
       <c r="B11" t="n">
-        <v>74.62159936182387</v>
+        <v>70.90481001233582</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>91.80517476315224</v>
+        <v>79.39357122051088</v>
       </c>
       <c r="B12" t="n">
-        <v>84.0715222248398</v>
+        <v>16.00729115868373</v>
       </c>
     </row>
   </sheetData>

--- a/locationInformation.xlsx
+++ b/locationInformation.xlsx
@@ -440,87 +440,87 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>97.59060580744973</v>
+        <v>22.47205237940567</v>
       </c>
       <c r="B3" t="n">
-        <v>15.71216806205307</v>
+        <v>24.42188086056359</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>12.63951656676334</v>
+        <v>43.10596677436153</v>
       </c>
       <c r="B4" t="n">
-        <v>49.07627489395733</v>
+        <v>33.30837606691833</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>22.12052835868113</v>
+        <v>47.33069991081125</v>
       </c>
       <c r="B5" t="n">
-        <v>86.67203836433957</v>
+        <v>43.51723992749518</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4.617586739061153</v>
+        <v>59.38002197101575</v>
       </c>
       <c r="B6" t="n">
-        <v>18.57340905398419</v>
+        <v>40.72689633897545</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>16.85258296598267</v>
+        <v>36.67210577724991</v>
       </c>
       <c r="B7" t="n">
-        <v>69.75639128612507</v>
+        <v>21.13418942495795</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>31.77035899188406</v>
+        <v>68.09045473220769</v>
       </c>
       <c r="B8" t="n">
-        <v>28.76347273638721</v>
+        <v>77.43154472992398</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>85.30436582307223</v>
+        <v>96.3392933415597</v>
       </c>
       <c r="B9" t="n">
-        <v>32.16942445557427</v>
+        <v>83.3410861362317</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>98.02999969983162</v>
+        <v>9.860559350548669</v>
       </c>
       <c r="B10" t="n">
-        <v>8.196248726929568</v>
+        <v>89.22316505126116</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>58.19122925570879</v>
+        <v>9.240038403630225</v>
       </c>
       <c r="B11" t="n">
-        <v>70.90481001233582</v>
+        <v>18.30728754316756</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>79.39357122051088</v>
+        <v>4.890652255825135</v>
       </c>
       <c r="B12" t="n">
-        <v>16.00729115868373</v>
+        <v>22.79650731480761</v>
       </c>
     </row>
   </sheetData>

--- a/locationInformation.xlsx
+++ b/locationInformation.xlsx
@@ -440,87 +440,87 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>22.47205237940567</v>
+        <v>25.87052097066153</v>
       </c>
       <c r="B3" t="n">
-        <v>24.42188086056359</v>
+        <v>73.19278931409009</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>43.10596677436153</v>
+        <v>1.724735946155298</v>
       </c>
       <c r="B4" t="n">
-        <v>33.30837606691833</v>
+        <v>38.9787218699974</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>47.33069991081125</v>
+        <v>31.92737271985037</v>
       </c>
       <c r="B5" t="n">
-        <v>43.51723992749518</v>
+        <v>26.37809161990384</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>59.38002197101575</v>
+        <v>2.849848552189305</v>
       </c>
       <c r="B6" t="n">
-        <v>40.72689633897545</v>
+        <v>9.406716561086236</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>36.67210577724991</v>
+        <v>89.30441939509237</v>
       </c>
       <c r="B7" t="n">
-        <v>21.13418942495795</v>
+        <v>20.41068538859994</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>68.09045473220769</v>
+        <v>38.48408452939017</v>
       </c>
       <c r="B8" t="n">
-        <v>77.43154472992398</v>
+        <v>36.55369968317429</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>96.3392933415597</v>
+        <v>33.03755338118201</v>
       </c>
       <c r="B9" t="n">
-        <v>83.3410861362317</v>
+        <v>49.51746086990273</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>9.860559350548669</v>
+        <v>26.65391651479928</v>
       </c>
       <c r="B10" t="n">
-        <v>89.22316505126116</v>
+        <v>92.32043567923792</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>9.240038403630225</v>
+        <v>51.1902995113552</v>
       </c>
       <c r="B11" t="n">
-        <v>18.30728754316756</v>
+        <v>19.98855164451505</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>4.890652255825135</v>
+        <v>25.33208949993304</v>
       </c>
       <c r="B12" t="n">
-        <v>22.79650731480761</v>
+        <v>1.063779103256712</v>
       </c>
     </row>
   </sheetData>

--- a/locationInformation.xlsx
+++ b/locationInformation.xlsx
@@ -440,87 +440,87 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>25.87052097066153</v>
+        <v>26.30060515795258</v>
       </c>
       <c r="B3" t="n">
-        <v>73.19278931409009</v>
+        <v>50.63823643561592</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1.724735946155298</v>
+        <v>49.86031055426232</v>
       </c>
       <c r="B4" t="n">
-        <v>38.9787218699974</v>
+        <v>53.51421700377151</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>31.92737271985037</v>
+        <v>10.6345755410293</v>
       </c>
       <c r="B5" t="n">
-        <v>26.37809161990384</v>
+        <v>43.21767988064006</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2.849848552189305</v>
+        <v>72.76746502083958</v>
       </c>
       <c r="B6" t="n">
-        <v>9.406716561086236</v>
+        <v>89.71329079549795</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>89.30441939509237</v>
+        <v>82.50376961820642</v>
       </c>
       <c r="B7" t="n">
-        <v>20.41068538859994</v>
+        <v>3.747284810167872</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>38.48408452939017</v>
+        <v>3.534757217649531</v>
       </c>
       <c r="B8" t="n">
-        <v>36.55369968317429</v>
+        <v>17.60770696233459</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>33.03755338118201</v>
+        <v>37.00817215104723</v>
       </c>
       <c r="B9" t="n">
-        <v>49.51746086990273</v>
+        <v>66.01359078796222</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>26.65391651479928</v>
+        <v>94.51263686363652</v>
       </c>
       <c r="B10" t="n">
-        <v>92.32043567923792</v>
+        <v>97.9910163048617</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>51.1902995113552</v>
+        <v>94.60579314886006</v>
       </c>
       <c r="B11" t="n">
-        <v>19.98855164451505</v>
+        <v>38.80688930454325</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>25.33208949993304</v>
+        <v>20.8881011094413</v>
       </c>
       <c r="B12" t="n">
-        <v>1.063779103256712</v>
+        <v>65.96072900675472</v>
       </c>
     </row>
   </sheetData>

--- a/locationInformation.xlsx
+++ b/locationInformation.xlsx
@@ -440,87 +440,87 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>26.30060515795258</v>
+        <v>81.25362767335959</v>
       </c>
       <c r="B3" t="n">
-        <v>50.63823643561592</v>
+        <v>76.45655681593664</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>49.86031055426232</v>
+        <v>93.18679750784736</v>
       </c>
       <c r="B4" t="n">
-        <v>53.51421700377151</v>
+        <v>42.00322742023224</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>10.6345755410293</v>
+        <v>41.09432469739924</v>
       </c>
       <c r="B5" t="n">
-        <v>43.21767988064006</v>
+        <v>34.16321051193894</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>72.76746502083958</v>
+        <v>99.95444190288377</v>
       </c>
       <c r="B6" t="n">
-        <v>89.71329079549795</v>
+        <v>81.36804570400956</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>82.50376961820642</v>
+        <v>54.63339994389921</v>
       </c>
       <c r="B7" t="n">
-        <v>3.747284810167872</v>
+        <v>30.76254281640919</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3.534757217649531</v>
+        <v>70.26694783766028</v>
       </c>
       <c r="B8" t="n">
-        <v>17.60770696233459</v>
+        <v>24.22103145927148</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>37.00817215104723</v>
+        <v>87.26397997500655</v>
       </c>
       <c r="B9" t="n">
-        <v>66.01359078796222</v>
+        <v>5.085217868764458</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>94.51263686363652</v>
+        <v>45.3394310757503</v>
       </c>
       <c r="B10" t="n">
-        <v>97.9910163048617</v>
+        <v>22.07765833209832</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>94.60579314886006</v>
+        <v>29.74462516166726</v>
       </c>
       <c r="B11" t="n">
-        <v>38.80688930454325</v>
+        <v>3.676415666174027</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>20.8881011094413</v>
+        <v>10.75247875981216</v>
       </c>
       <c r="B12" t="n">
-        <v>65.96072900675472</v>
+        <v>51.20370263515848</v>
       </c>
     </row>
   </sheetData>

--- a/locationInformation.xlsx
+++ b/locationInformation.xlsx
@@ -440,87 +440,87 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>81.25362767335959</v>
+        <v>7.189213349605938</v>
       </c>
       <c r="B3" t="n">
-        <v>76.45655681593664</v>
+        <v>81.30596422418617</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>93.18679750784736</v>
+        <v>85.40174017790099</v>
       </c>
       <c r="B4" t="n">
-        <v>42.00322742023224</v>
+        <v>53.88938393502784</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>41.09432469739924</v>
+        <v>77.02568988725942</v>
       </c>
       <c r="B5" t="n">
-        <v>34.16321051193894</v>
+        <v>77.21525349799838</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>99.95444190288377</v>
+        <v>91.00396018707799</v>
       </c>
       <c r="B6" t="n">
-        <v>81.36804570400956</v>
+        <v>68.84122732601907</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>54.63339994389921</v>
+        <v>37.46077197232977</v>
       </c>
       <c r="B7" t="n">
-        <v>30.76254281640919</v>
+        <v>28.8031727863092</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>70.26694783766028</v>
+        <v>16.21353966009795</v>
       </c>
       <c r="B8" t="n">
-        <v>24.22103145927148</v>
+        <v>15.0565979934945</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>87.26397997500655</v>
+        <v>56.89133011865746</v>
       </c>
       <c r="B9" t="n">
-        <v>5.085217868764458</v>
+        <v>74.89057371898615</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>45.3394310757503</v>
+        <v>10.98049417105041</v>
       </c>
       <c r="B10" t="n">
-        <v>22.07765833209832</v>
+        <v>8.39499279008149</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>29.74462516166726</v>
+        <v>71.22060252685675</v>
       </c>
       <c r="B11" t="n">
-        <v>3.676415666174027</v>
+        <v>48.97196808096474</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>10.75247875981216</v>
+        <v>57.5398238627473</v>
       </c>
       <c r="B12" t="n">
-        <v>51.20370263515848</v>
+        <v>66.27320935378731</v>
       </c>
     </row>
   </sheetData>

--- a/locationInformation.xlsx
+++ b/locationInformation.xlsx
@@ -440,87 +440,87 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>81.25362767335959</v>
+        <v>53.35767375355807</v>
       </c>
       <c r="B3" t="n">
-        <v>76.45655681593664</v>
+        <v>8.441399672551608</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>93.18679750784736</v>
+        <v>75.28646149790691</v>
       </c>
       <c r="B4" t="n">
-        <v>42.00322742023224</v>
+        <v>24.05145168440063</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>41.09432469739924</v>
+        <v>27.27857267224133</v>
       </c>
       <c r="B5" t="n">
-        <v>34.16321051193894</v>
+        <v>69.78890511240968</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>99.95444190288377</v>
+        <v>98.061964385222</v>
       </c>
       <c r="B6" t="n">
-        <v>81.36804570400956</v>
+        <v>68.48677152306347</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>54.63339994389921</v>
+        <v>44.71883667930013</v>
       </c>
       <c r="B7" t="n">
-        <v>30.76254281640919</v>
+        <v>66.11473932804788</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>70.26694783766028</v>
+        <v>34.00391221903721</v>
       </c>
       <c r="B8" t="n">
-        <v>24.22103145927148</v>
+        <v>22.47661427023767</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>87.26397997500655</v>
+        <v>85.26353246651985</v>
       </c>
       <c r="B9" t="n">
-        <v>5.085217868764458</v>
+        <v>71.73199315072577</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>45.3394310757503</v>
+        <v>12.37495093042248</v>
       </c>
       <c r="B10" t="n">
-        <v>22.07765833209832</v>
+        <v>17.11682650805136</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>29.74462516166726</v>
+        <v>97.71469291288987</v>
       </c>
       <c r="B11" t="n">
-        <v>3.676415666174027</v>
+        <v>26.12432258656587</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>10.75247875981216</v>
+        <v>16.46110116882159</v>
       </c>
       <c r="B12" t="n">
-        <v>51.20370263515848</v>
+        <v>85.09274884833144</v>
       </c>
     </row>
   </sheetData>

--- a/locationInformation.xlsx
+++ b/locationInformation.xlsx
@@ -440,87 +440,87 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>7.189213349605938</v>
+        <v>95.57935400440883</v>
       </c>
       <c r="B3" t="n">
-        <v>81.30596422418617</v>
+        <v>19.10708255357301</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>85.40174017790099</v>
+        <v>95.87912885026124</v>
       </c>
       <c r="B4" t="n">
-        <v>53.88938393502784</v>
+        <v>45.07519210843757</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>77.02568988725942</v>
+        <v>67.05146209547379</v>
       </c>
       <c r="B5" t="n">
-        <v>77.21525349799838</v>
+        <v>4.230942106751256</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>91.00396018707799</v>
+        <v>25.99285197820442</v>
       </c>
       <c r="B6" t="n">
-        <v>68.84122732601907</v>
+        <v>47.99021230443445</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>37.46077197232977</v>
+        <v>94.94253908868332</v>
       </c>
       <c r="B7" t="n">
-        <v>28.8031727863092</v>
+        <v>87.91831752506124</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>16.21353966009795</v>
+        <v>47.29670435006561</v>
       </c>
       <c r="B8" t="n">
-        <v>15.0565979934945</v>
+        <v>48.85677749981602</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>56.89133011865746</v>
+        <v>91.28306801592994</v>
       </c>
       <c r="B9" t="n">
-        <v>74.89057371898615</v>
+        <v>73.00653313318338</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>10.98049417105041</v>
+        <v>85.00717357307811</v>
       </c>
       <c r="B10" t="n">
-        <v>8.39499279008149</v>
+        <v>41.36516276149828</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>71.22060252685675</v>
+        <v>39.85088617781319</v>
       </c>
       <c r="B11" t="n">
-        <v>48.97196808096474</v>
+        <v>13.1050235071809</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>57.5398238627473</v>
+        <v>99.76795645143127</v>
       </c>
       <c r="B12" t="n">
-        <v>66.27320935378731</v>
+        <v>37.72945892490576</v>
       </c>
     </row>
   </sheetData>

--- a/locationInformation.xlsx
+++ b/locationInformation.xlsx
@@ -440,87 +440,87 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>95.57935400440883</v>
+        <v>47.966121050668</v>
       </c>
       <c r="B3" t="n">
-        <v>19.10708255357301</v>
+        <v>67.75687838045391</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>95.87912885026124</v>
+        <v>67.48296736043592</v>
       </c>
       <c r="B4" t="n">
-        <v>45.07519210843757</v>
+        <v>16.2439518848968</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>67.05146209547379</v>
+        <v>33.09158168133758</v>
       </c>
       <c r="B5" t="n">
-        <v>4.230942106751256</v>
+        <v>70.5493546621091</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>25.99285197820442</v>
+        <v>61.40516639107072</v>
       </c>
       <c r="B6" t="n">
-        <v>47.99021230443445</v>
+        <v>29.91778968179928</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>94.94253908868332</v>
+        <v>74.64745189907094</v>
       </c>
       <c r="B7" t="n">
-        <v>87.91831752506124</v>
+        <v>27.19223534093726</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>47.29670435006561</v>
+        <v>28.66965893876127</v>
       </c>
       <c r="B8" t="n">
-        <v>48.85677749981602</v>
+        <v>10.44543518139912</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>91.28306801592994</v>
+        <v>85.53970618108177</v>
       </c>
       <c r="B9" t="n">
-        <v>73.00653313318338</v>
+        <v>49.00192935721188</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>85.00717357307811</v>
+        <v>36.21916530925885</v>
       </c>
       <c r="B10" t="n">
-        <v>41.36516276149828</v>
+        <v>7.892696489214391</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>39.85088617781319</v>
+        <v>49.22353327254749</v>
       </c>
       <c r="B11" t="n">
-        <v>13.1050235071809</v>
+        <v>37.54127224014491</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>99.76795645143127</v>
+        <v>69.26723424104217</v>
       </c>
       <c r="B12" t="n">
-        <v>37.72945892490576</v>
+        <v>14.60283533565521</v>
       </c>
     </row>
   </sheetData>
